--- a/organized/allDataAnalysis2.xlsx
+++ b/organized/allDataAnalysis2.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alan Wu\Documents\GitHub\PredictionMarket\organized\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14380" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="14385" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis 2 Graph" sheetId="2" r:id="rId1"/>
     <sheet name="allDataAnalysis2.csv" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
   <si>
     <t>buyers: 498, sellers: 498</t>
   </si>
@@ -51,12 +57,42 @@
   <si>
     <t>buyers: 999, sellers: 999</t>
   </si>
+  <si>
+    <t>Manipulators</t>
+  </si>
+  <si>
+    <t>RiskAversion</t>
+  </si>
+  <si>
+    <t>R-Squared Value</t>
+  </si>
+  <si>
+    <t>P-Value</t>
+  </si>
+  <si>
+    <t>Mean Squared Error</t>
+  </si>
+  <si>
+    <t>Market Size</t>
+  </si>
+  <si>
+    <t>498 Buyers, 498 Sellers</t>
+  </si>
+  <si>
+    <t>999 Buyers, 999 Sellers</t>
+  </si>
+  <si>
+    <t>498 Buyers, 999 Sellers</t>
+  </si>
+  <si>
+    <t>999 Buyers, 498 Sellers</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -76,6 +112,13 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -103,8 +146,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -113,6 +162,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -146,7 +203,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -175,7 +231,7 @@
               </a:ln>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="35.0"/>
+            <c:forward val="35"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -186,64 +242,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16384"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>59.426733013162</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50.3116831182929</c:v>
+                  <c:v>50.311683118292898</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49.9171457941397</c:v>
+                  <c:v>49.917145794139699</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>50.0901423808658</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50.9678802489582</c:v>
+                  <c:v>50.967880248958203</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>50.5021087404889</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>48.1687390746799</c:v>
+                  <c:v>48.168739074679898</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>52.1830896395593</c:v>
+                  <c:v>52.183089639559299</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>53.8990594862043</c:v>
+                  <c:v>53.899059486204301</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>52.8170154385444</c:v>
+                  <c:v>52.817015438544402</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>47.0030756573422</c:v>
+                  <c:v>47.003075657342201</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50.2928655970278</c:v>
+                  <c:v>50.292865597027799</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>50.2088818026862</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>51.7998810975547</c:v>
+                  <c:v>51.799881097554703</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>50.6580620642771</c:v>
+                  <c:v>50.658062064277097</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>49.7299068671612</c:v>
+                  <c:v>49.729906867161198</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -255,64 +311,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16384"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -339,7 +395,7 @@
               </a:ln>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="35.0"/>
+            <c:forward val="35"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -350,64 +406,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16384"/>
                 <c:pt idx="0">
-                  <c:v>27.0151223467743</c:v>
+                  <c:v>27.015122346774302</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>26.1539831384639</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34.9839034363453</c:v>
+                  <c:v>34.983903436345301</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46.8279631740661</c:v>
+                  <c:v>46.827963174066099</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>53.9245845686225</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>25.2090289391613</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>25.2041837754563</c:v>
+                  <c:v>25.204183775456301</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>25.8737561397495</c:v>
+                  <c:v>25.873756139749499</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>32.289341313987</c:v>
+                  <c:v>32.289341313987002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>25.0134739439241</c:v>
+                  <c:v>25.013473943924101</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>25.4200114355893</c:v>
+                  <c:v>25.420011435589299</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>25.0059994813456</c:v>
+                  <c:v>25.005999481345601</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>25.5557268661122</c:v>
+                  <c:v>25.555726866112199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -419,64 +475,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16384"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -503,7 +559,7 @@
               </a:ln>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="20.0"/>
+            <c:forward val="20"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -514,61 +570,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16384"/>
                 <c:pt idx="0">
-                  <c:v>52.541679324562</c:v>
+                  <c:v>52.541679324561997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>74.9897150112732</c:v>
+                  <c:v>74.989715011273205</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70.9229968013634</c:v>
+                  <c:v>70.922996801363396</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>69.42293192891999</c:v>
+                  <c:v>69.422931928919994</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63.7340411133069</c:v>
+                  <c:v>63.734041113306901</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>72.1872502487033</c:v>
+                  <c:v>72.187250248703293</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>73.9212255690937</c:v>
+                  <c:v>73.921225569093707</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>74.7316835454905</c:v>
+                  <c:v>74.731683545490498</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>69.7457841293981</c:v>
+                  <c:v>69.745784129398103</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>74.15270114868279</c:v>
+                  <c:v>74.152701148682794</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>74.263713829114</c:v>
+                  <c:v>74.263713829113996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>74.62843393164221</c:v>
+                  <c:v>74.628433931642206</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>74.9859580295567</c:v>
+                  <c:v>74.985958029556699</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>74.9532529670091</c:v>
+                  <c:v>74.953252967009107</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>72.9869186173997</c:v>
+                  <c:v>72.986918617399695</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>74.2388272535084</c:v>
+                  <c:v>74.238827253508404</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>74.9555850388204</c:v>
+                  <c:v>74.955585038820402</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>74.8448029135383</c:v>
+                  <c:v>74.844802913538302</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>74.68248518467379</c:v>
+                  <c:v>74.682485184673794</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>74.8543286628652</c:v>
@@ -583,64 +639,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16384"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -667,7 +723,7 @@
               </a:ln>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="40.0"/>
+            <c:forward val="40"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -678,64 +734,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16384"/>
                 <c:pt idx="0">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>53.7716294190299</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>60.4650614471254</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51.9980595093807</c:v>
+                  <c:v>51.998059509380703</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>35.6454390722581</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>53.6431226623581</c:v>
+                  <c:v>53.643122662358103</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43.324912633469</c:v>
+                  <c:v>43.324912633468998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>55.2494321938743</c:v>
+                  <c:v>55.249432193874298</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>50.4161317247043</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>47.378202061536</c:v>
+                  <c:v>47.378202061536001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>52.4058539070082</c:v>
+                  <c:v>52.405853907008201</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>49.9052859383501</c:v>
+                  <c:v>49.905285938350097</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>50.4605952170137</c:v>
+                  <c:v>50.460595217013697</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>54.8024845529422</c:v>
+                  <c:v>54.802484552942197</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>49.8770491055471</c:v>
+                  <c:v>49.877049105547101</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>50.8566537023036</c:v>
+                  <c:v>50.856653702303603</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>51.7452891492546</c:v>
+                  <c:v>51.745289149254603</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>48.2955280201018</c:v>
+                  <c:v>48.295528020101798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -747,64 +803,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16384"/>
                 <c:pt idx="0">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -819,14 +875,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2131260552"/>
-        <c:axId val="2131563656"/>
+        <c:axId val="1543573584"/>
+        <c:axId val="1543562160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2131260552"/>
+        <c:axId val="1543573584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100.0"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -846,23 +902,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131563656"/>
+        <c:crossAx val="1543562160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2131563656"/>
+        <c:axId val="1543562160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100.0"/>
-          <c:min val="0.0"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -883,21 +938,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131260552"/>
+        <c:crossAx val="1543573584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -911,7 +964,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="110" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -922,7 +975,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8578273" cy="5842000"/>
+    <xdr:ext cx="8668550" cy="6291303"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -1269,23 +1322,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1302,7 +1355,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1.10949067273496</v>
       </c>
@@ -1319,17 +1372,20 @@
         <v>0.39711152010304701</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C5">
         <f>C4^2</f>
         <v>0.30248477763921916</v>
       </c>
+      <c r="D5">
+        <v>1.19923692716455E-2</v>
+      </c>
       <c r="E5">
         <f>E4^2</f>
         <v>0.15769755939855271</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1391,7 +1447,7 @@
         <v>49.729906867161198</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1453,17 +1509,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1480,7 +1536,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.73590975031041905</v>
       </c>
@@ -1497,17 +1553,20 @@
         <v>0.55427338528859704</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C13">
         <f>C12^2</f>
         <v>8.9197516815612568E-2</v>
       </c>
+      <c r="D13">
+        <v>0.200869592478086</v>
+      </c>
       <c r="E13">
         <f>E12^2</f>
         <v>0.30721898563928152</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>27.015122346774302</v>
       </c>
@@ -1569,7 +1628,7 @@
         <v>25.555726866112199</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -1631,17 +1690,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -1658,7 +1717,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3.1468760386265102</v>
       </c>
@@ -1675,17 +1734,20 @@
         <v>1.6641703096829701</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C21">
         <f>C20^2</f>
         <v>0.16572895686343422</v>
       </c>
+      <c r="D21">
+        <v>7.4837175114828097E-2</v>
+      </c>
       <c r="E21">
         <f>E20^2</f>
         <v>2.7694628196303124</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>52.541679324561997</v>
       </c>
@@ -1747,7 +1809,7 @@
         <v>74.8543286628652</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -1809,17 +1871,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -1836,7 +1898,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0.62562014173450398</v>
       </c>
@@ -1853,17 +1915,20 @@
         <v>0.53888177469535703</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C29">
         <f>C28^2</f>
         <v>6.966301018862725E-2</v>
       </c>
+      <c r="D29">
+        <v>0.26082387114294903</v>
+      </c>
       <c r="E29">
         <f>E28^2</f>
         <v>0.29039356709881753</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>25</v>
       </c>
@@ -1925,7 +1990,7 @@
         <v>48.295528020101798</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>100</v>
       </c>
@@ -1995,4 +2060,123 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="6" width="20.75" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.30248477763921916</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.19923692716455E-2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.15769755939855271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D3" s="1">
+        <v>8.9197516815612568E-2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.200869592478086</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.30721898563928152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.16572895686343422</v>
+      </c>
+      <c r="E4" s="1">
+        <v>7.4837175114828097E-2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2.7694628196303124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D5" s="1">
+        <v>6.966301018862725E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.26082387114294903</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.29039356709881753</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/organized/allDataAnalysis2.xlsx
+++ b/organized/allDataAnalysis2.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26915"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alan Wu\Documents\GitHub\PredictionMarket\organized\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eric/Documents/networks2/PredictionMarket/organized/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="14385" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="14380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis 2 Graph" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,9 @@
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -203,6 +206,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -231,7 +235,7 @@
               </a:ln>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="35"/>
+            <c:forward val="35.0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -242,64 +246,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16384"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>59.426733013162</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50.311683118292898</c:v>
+                  <c:v>50.3116831182929</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49.917145794139699</c:v>
+                  <c:v>49.9171457941397</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>50.0901423808658</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50.967880248958203</c:v>
+                  <c:v>50.9678802489582</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>50.5021087404889</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>48.168739074679898</c:v>
+                  <c:v>48.1687390746799</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>52.183089639559299</c:v>
+                  <c:v>52.1830896395593</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>53.899059486204301</c:v>
+                  <c:v>53.8990594862043</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>52.817015438544402</c:v>
+                  <c:v>52.8170154385444</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>47.003075657342201</c:v>
+                  <c:v>47.0030756573422</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50.292865597027799</c:v>
+                  <c:v>50.2928655970278</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>50.2088818026862</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>51.799881097554703</c:v>
+                  <c:v>51.7998810975547</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>50.658062064277097</c:v>
+                  <c:v>50.6580620642771</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>49.729906867161198</c:v>
+                  <c:v>49.7299068671612</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -311,64 +315,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16384"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -395,7 +399,7 @@
               </a:ln>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="35"/>
+            <c:forward val="35.0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -406,64 +410,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16384"/>
                 <c:pt idx="0">
-                  <c:v>27.015122346774302</c:v>
+                  <c:v>27.0151223467743</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>26.1539831384639</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34.983903436345301</c:v>
+                  <c:v>34.9839034363453</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46.827963174066099</c:v>
+                  <c:v>46.8279631740661</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>53.9245845686225</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>25.2090289391613</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>25.204183775456301</c:v>
+                  <c:v>25.2041837754563</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>25.873756139749499</c:v>
+                  <c:v>25.8737561397495</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>32.289341313987002</c:v>
+                  <c:v>32.289341313987</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>25.013473943924101</c:v>
+                  <c:v>25.0134739439241</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>25.420011435589299</c:v>
+                  <c:v>25.4200114355893</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>25.005999481345601</c:v>
+                  <c:v>25.0059994813456</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>25.555726866112199</c:v>
+                  <c:v>25.5557268661122</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -475,64 +479,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16384"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -559,7 +563,7 @@
               </a:ln>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="20"/>
+            <c:forward val="20.0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -570,61 +574,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16384"/>
                 <c:pt idx="0">
-                  <c:v>52.541679324561997</c:v>
+                  <c:v>52.541679324562</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>74.989715011273205</c:v>
+                  <c:v>74.9897150112732</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70.922996801363396</c:v>
+                  <c:v>70.9229968013634</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>69.422931928919994</c:v>
+                  <c:v>69.42293192891999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63.734041113306901</c:v>
+                  <c:v>63.7340411133069</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>72.187250248703293</c:v>
+                  <c:v>72.1872502487033</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>73.921225569093707</c:v>
+                  <c:v>73.9212255690937</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>74.731683545490498</c:v>
+                  <c:v>74.7316835454905</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>69.745784129398103</c:v>
+                  <c:v>69.7457841293981</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>74.152701148682794</c:v>
+                  <c:v>74.15270114868279</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>74.263713829113996</c:v>
+                  <c:v>74.263713829114</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>74.628433931642206</c:v>
+                  <c:v>74.62843393164221</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>74.985958029556699</c:v>
+                  <c:v>74.9859580295567</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>74.953252967009107</c:v>
+                  <c:v>74.9532529670091</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>72.986918617399695</c:v>
+                  <c:v>72.9869186173997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>74.238827253508404</c:v>
+                  <c:v>74.2388272535084</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>74.955585038820402</c:v>
+                  <c:v>74.9555850388204</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>74.844802913538302</c:v>
+                  <c:v>74.8448029135383</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>74.682485184673794</c:v>
+                  <c:v>74.68248518467379</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>74.8543286628652</c:v>
@@ -639,64 +643,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16384"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -723,7 +727,7 @@
               </a:ln>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="40"/>
+            <c:forward val="40.0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -734,64 +738,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16384"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>53.7716294190299</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>60.4650614471254</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51.998059509380703</c:v>
+                  <c:v>51.9980595093807</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>35.6454390722581</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>53.643122662358103</c:v>
+                  <c:v>53.6431226623581</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43.324912633468998</c:v>
+                  <c:v>43.324912633469</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>55.249432193874298</c:v>
+                  <c:v>55.2494321938743</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>50.4161317247043</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>47.378202061536001</c:v>
+                  <c:v>47.378202061536</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>52.405853907008201</c:v>
+                  <c:v>52.4058539070082</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>49.905285938350097</c:v>
+                  <c:v>49.9052859383501</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>50.460595217013697</c:v>
+                  <c:v>50.4605952170137</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>54.802484552942197</c:v>
+                  <c:v>54.8024845529422</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>49.877049105547101</c:v>
+                  <c:v>49.8770491055471</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>50.856653702303603</c:v>
+                  <c:v>50.8566537023036</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>51.745289149254603</c:v>
+                  <c:v>51.7452891492546</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>48.295528020101798</c:v>
+                  <c:v>48.2955280201018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -803,64 +807,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16384"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -875,14 +879,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1543573584"/>
-        <c:axId val="1543562160"/>
+        <c:axId val="-2144807936"/>
+        <c:axId val="-2144803216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1543573584"/>
+        <c:axId val="-2144807936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
+          <c:max val="100.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -902,26 +906,26 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1543562160"/>
+        <c:crossAx val="-2144803216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1543562160"/>
+        <c:axId val="-2144803216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
-          <c:min val="0"/>
+          <c:max val="100.0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -938,19 +942,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1543573584"/>
+        <c:crossAx val="-2144807936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -964,7 +970,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -975,7 +981,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8668550" cy="6291303"/>
+    <xdr:ext cx="8680388" cy="6288350"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -1326,7 +1332,7 @@
       <selection activeCell="G1" sqref="G1:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2054,11 +2060,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2066,14 +2067,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="20.75" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="6" width="20.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
